--- a/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-03/Sample-03.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-03/Sample-03.xlsx
@@ -66,8 +66,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="0eypgojw" xfId="1"/>
-    <cellStyle name="0eypgojw_Alternate" xfId="2"/>
+    <cellStyle name="eoveskid" xfId="1"/>
+    <cellStyle name="eoveskid_Alternate" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-03/Sample-03.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-03/Sample-03.xlsx
@@ -66,8 +66,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="eoveskid" xfId="1"/>
-    <cellStyle name="eoveskid_Alternate" xfId="2"/>
+    <cellStyle name="0pq0k1ly" xfId="1"/>
+    <cellStyle name="0pq0k1ly_Alternate" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
